--- a/flows/HYS_fund_flow_data.xlsx
+++ b/flows/HYS_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3197"/>
+  <dimension ref="A1:B3212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32405,6 +32405,156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3198">
+      <c r="A3198" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3198" t="n">
+        <v>4.6595</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3204" t="n">
+        <v>9.289999999999999</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3205" t="n">
+        <v>9.292</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3207" t="n">
+        <v>9.315</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3208" t="n">
+        <v>4.663</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3211" t="n">
+        <v>-9.331</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3212" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
